--- a/Projects/Sprint 3/Project_sprint3.xlsx
+++ b/Projects/Sprint 3/Project_sprint3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Documents\Education\Yandex\Projects\Sprint 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexey\Documents\GitHub\YandexPractice\Projects\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B275A43-B1A4-4103-9C04-5DF35AB2ADEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270D700A-2B4E-469D-8059-68C2A1CDD8CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,8 +1399,8 @@
   </sheetPr>
   <dimension ref="A1:F949"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5972,8 +5972,9 @@
     <hyperlink ref="D29" r:id="rId11" display="https://tracker.yandex.ru/BUG-22743" xr:uid="{E492D19B-AA7E-4F4E-BE29-E75A23201759}"/>
     <hyperlink ref="D30" r:id="rId12" display="https://tracker.yandex.ru/BUG-22743" xr:uid="{34E9E540-422E-429C-957C-0F2F387AF349}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -5984,7 +5985,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
@@ -11188,7 +11189,7 @@
     <hyperlink ref="D114" r:id="rId26" display="https://tracker.yandex.ru/BUG-22220" xr:uid="{085B4257-4069-4008-90D7-567ACC1B21CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
